--- a/DOM_Banner/output/dept_banner/Maria Bishop_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Maria Bishop_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG4"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,19 +360,19 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>authors_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>author</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
@@ -385,161 +385,76 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>so_id</t>
+          <t>host_organization</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>host_organization</t>
+          <t>url</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>issn_l</t>
+          <t>license</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>url</t>
+          <t>version</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>pdf_url</t>
+          <t>oa_status</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>license</t>
+          <t>language</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>version</t>
+          <t>cited_by_count</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>first_page</t>
+          <t>publication_year</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>last_page</t>
+          <t>pmid</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>doi</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>issue</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>is_oa</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>is_oa_anywhere</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>oa_status</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>oa_url</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>any_repository_has_fulltext</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>language</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>grants</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>cited_by_count</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>publication_year</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>cited_by_api_url</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>ids</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>doi</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
           <t>type</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>referenced_works</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>related_works</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>is_paratext</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>is_retracted</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>Maria C. Bishop</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4361213193</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>The American Association for Cancer Education Academy of Fellows Welcomes Five New Fellows; Margaret Hay Edwards Achievement Medal Awarded</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>list(au_id = "https://openalex.org/A5055975808", au_display_name = "Maria C. Bishop", au_orcid = NA, author_position = "first", au_affiliation_raw = "Division of Hematology and Oncology, University of Arizona Cancer Center, Tucson, USA", institution_id = "https://openalex.org/I138006243", institution_display_name = "University of Arizona", institution_ror = "https://ror.org/03m2x1q45", institution_country_code = "US", institution_type = "education", institution_lineage = "https://openalex.org/I138006243, https://openalex.org/I3132585960")</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
           <t>2023-03-28</t>
@@ -552,161 +467,76 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>https://openalex.org/S149651696</t>
+          <t>Springer Science+Business Media</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Springer Science+Business Media</t>
+          <t>https://doi.org/10.1007/s13187-023-02276-x</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0885-8195</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
+          <t>publishedVersion</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>bronze</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>https://pubmed.ncbi.nlm.nih.gov/36977805</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1007/s13187-023-02276-x</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>https://link.springer.com/content/pdf/10.1007/s13187-023-02276-x.pdf</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>publishedVersion</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>387</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>389</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
-      </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>bronze</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>https://link.springer.com/content/pdf/10.1007/s13187-023-02276-x.pdf</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>https://api.openalex.org/works?filter=cites:W4361213193</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>c(openalex = "https://openalex.org/W4361213193", doi = "https://doi.org/10.1007/s13187-023-02276-x", pmid = "https://pubmed.ncbi.nlm.nih.gov/36977805")</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1007/s13187-023-02276-x</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
           <t>article</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W4301309907", "https://openalex.org/W2899084033", "https://openalex.org/W4213308623", "https://openalex.org/W2400834296", "https://openalex.org/W4249321524", "https://openalex.org/W4299906194", "https://openalex.org/W2419473274", "https://openalex.org/W4239423032", "https://openalex.org/W1984216747", "https://openalex.org/W2319567193")</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>Maria C. Bishop</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4378173265</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>Learning About Cancer Education in Wroclaw, Poland</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>list(au_id = "https://openalex.org/A5055975808", au_display_name = "Maria C. Bishop", au_orcid = NA, author_position = "first", au_affiliation_raw = "Division of Hematology and Oncology, University of Arizona Cancer Center, Tucson, USA", institution_id = "https://openalex.org/I138006243", institution_display_name = "University of Arizona", institution_ror = "https://ror.org/03m2x1q45", institution_country_code = "US", institution_type = "education", institution_lineage = "https://openalex.org/I138006243, https://openalex.org/I3132585960")</t>
-        </is>
-      </c>
       <c r="D3" t="inlineStr">
         <is>
           <t>2023-05-25</t>
@@ -719,161 +549,76 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>https://openalex.org/S149651696</t>
+          <t>Springer Science+Business Media</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Springer Science+Business Media</t>
+          <t>https://doi.org/10.1007/s13187-023-02307-7</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0885-8195</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
+          <t>publishedVersion</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>bronze</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37227590</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1007/s13187-023-02307-7</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>https://link.springer.com/content/pdf/10.1007/s13187-023-02307-7.pdf</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>publishedVersion</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>735</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>737</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
-      </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>bronze</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>https://link.springer.com/content/pdf/10.1007/s13187-023-02307-7.pdf</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>https://api.openalex.org/works?filter=cites:W4378173265</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>c(openalex = "https://openalex.org/W4378173265", doi = "https://doi.org/10.1007/s13187-023-02307-7", pmid = "https://pubmed.ncbi.nlm.nih.gov/37227590")</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1007/s13187-023-02307-7</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
           <t>article</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W4389568370", "https://openalex.org/W2586801360", "https://openalex.org/W1506200166", "https://openalex.org/W1489783725", "https://openalex.org/W3031052312", "https://openalex.org/W1995515455", "https://openalex.org/W2080531066", "https://openalex.org/W2748952813", "https://openalex.org/W3032375762", "https://openalex.org/W3108674512")</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>FALSE</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>Maria C. Bishop</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4382047762</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>With Gratitude</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>list(au_id = "https://openalex.org/A5055975808", au_display_name = "Maria C. Bishop", au_orcid = NA, author_position = "first", au_affiliation_raw = "Division of Hematology and Oncology, University of Arizona Cancer Center, Tucson, USA", institution_id = "https://openalex.org/I138006243", institution_display_name = "University of Arizona", institution_ror = "https://ror.org/03m2x1q45", institution_country_code = "US", institution_type = "education", institution_lineage = "https://openalex.org/I138006243, https://openalex.org/I3132585960")</t>
-        </is>
-      </c>
       <c r="D4" t="inlineStr">
         <is>
           <t>2023-06-26</t>
@@ -886,142 +631,57 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>https://openalex.org/S149651696</t>
+          <t>Springer Science+Business Media</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Springer Science+Business Media</t>
+          <t>https://doi.org/10.1007/s13187-023-02328-2</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0885-8195</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
+          <t>publishedVersion</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>bronze</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37365372</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1007/s13187-023-02328-2</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>https://link.springer.com/content/pdf/10.1007/s13187-023-02328-2.pdf</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>publishedVersion</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>1107</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>1108</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
-      </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>bronze</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>https://link.springer.com/content/pdf/10.1007/s13187-023-02328-2.pdf</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>https://api.openalex.org/works?filter=cites:W4382047762</t>
-        </is>
-      </c>
-      <c r="AA4" t="inlineStr">
-        <is>
-          <t>c(openalex = "https://openalex.org/W4382047762", doi = "https://doi.org/10.1007/s13187-023-02328-2", pmid = "https://pubmed.ncbi.nlm.nih.gov/37365372")</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1007/s13187-023-02328-2</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
           <t>article</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W2748952813", "https://openalex.org/W2754218581", "https://openalex.org/W4232627398", "https://openalex.org/W2883689832", "https://openalex.org/W2160373287", "https://openalex.org/W4366689611", "https://openalex.org/W3142518643", "https://openalex.org/W4313205222", "https://openalex.org/W2522111510", "https://openalex.org/W2617834768")</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>FALSE</t>
         </is>
       </c>
     </row>

--- a/DOM_Banner/output/dept_banner/Maria Bishop_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Maria Bishop_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Division of Hematology and Oncology, University of Arizona Cancer Center, Tucson, USA</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4361213193</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>The American Association for Cancer Education Academy of Fellows Welcomes Five New Fellows; Margaret Hay Edwards Achievement Medal Awarded</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2023-03-28</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Journal of Cancer Education</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Springer Science+Business Media</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/s13187-023-02276-x</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36977805</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/s13187-023-02276-x</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,75 +539,80 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Division of Hematology and Oncology, University of Arizona Cancer Center, Tucson, USA</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4378173265</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Learning About Cancer Education in Wroclaw, Poland</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2023-05-25</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Journal of Cancer Education</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Springer Science+Business Media</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/s13187-023-02307-7</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37227590</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/s13187-023-02307-7</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -611,75 +626,80 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Division of Hematology and Oncology, University of Arizona Cancer Center, Tucson, USA</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4382047762</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>With Gratitude</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2023-06-26</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Journal of Cancer Education</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Springer Science+Business Media</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/s13187-023-02328-2</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37365372</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/s13187-023-02328-2</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>article</t>
         </is>
